--- a/Code/Results/Cases/Case_4_84/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_84/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.016931224919077</v>
+        <v>1.04193501389126</v>
       </c>
       <c r="D2">
-        <v>1.034211859712848</v>
+        <v>1.048556341196559</v>
       </c>
       <c r="E2">
-        <v>1.034388293028209</v>
+        <v>1.055020396193695</v>
       </c>
       <c r="F2">
-        <v>1.040652193399249</v>
+        <v>1.061389353261513</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049612355168474</v>
+        <v>1.041418978249233</v>
       </c>
       <c r="J2">
-        <v>1.038617055709238</v>
+        <v>1.047013544554417</v>
       </c>
       <c r="K2">
-        <v>1.045214288877564</v>
+        <v>1.051315856538892</v>
       </c>
       <c r="L2">
-        <v>1.04538846383165</v>
+        <v>1.057762003201966</v>
       </c>
       <c r="M2">
-        <v>1.051572804923829</v>
+        <v>1.064113546403013</v>
       </c>
       <c r="N2">
-        <v>1.016631773654884</v>
+        <v>1.019566382530981</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.020708852896698</v>
+        <v>1.042748953802618</v>
       </c>
       <c r="D3">
-        <v>1.037006865498856</v>
+        <v>1.049185031758192</v>
       </c>
       <c r="E3">
-        <v>1.037728929197202</v>
+        <v>1.055794751089229</v>
       </c>
       <c r="F3">
-        <v>1.044078422586875</v>
+        <v>1.062185263928952</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050610172789851</v>
+        <v>1.041590927976909</v>
       </c>
       <c r="J3">
-        <v>1.040650463561461</v>
+        <v>1.047474391361324</v>
       </c>
       <c r="K3">
-        <v>1.047187159292213</v>
+        <v>1.051757090794496</v>
       </c>
       <c r="L3">
-        <v>1.047900789572</v>
+        <v>1.058349816303406</v>
       </c>
       <c r="M3">
-        <v>1.054176743670918</v>
+        <v>1.06472411563336</v>
       </c>
       <c r="N3">
-        <v>1.017317990788009</v>
+        <v>1.01972083635055</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.023110930703961</v>
+        <v>1.043276400249202</v>
       </c>
       <c r="D4">
-        <v>1.038787262148484</v>
+        <v>1.049592509500735</v>
       </c>
       <c r="E4">
-        <v>1.03985847580795</v>
+        <v>1.056296924740789</v>
       </c>
       <c r="F4">
-        <v>1.046262612739965</v>
+        <v>1.062701423078262</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051236857638132</v>
+        <v>1.041701374638252</v>
       </c>
       <c r="J4">
-        <v>1.041941378877354</v>
+        <v>1.047772675585868</v>
       </c>
       <c r="K4">
-        <v>1.048439055265662</v>
+        <v>1.05204257923944</v>
       </c>
       <c r="L4">
-        <v>1.049498514997358</v>
+        <v>1.058730621478928</v>
       </c>
       <c r="M4">
-        <v>1.055832998002363</v>
+        <v>1.065119686539399</v>
       </c>
       <c r="N4">
-        <v>1.017753500878597</v>
+        <v>1.019820768565562</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.024110935920769</v>
+        <v>1.043498321939337</v>
       </c>
       <c r="D5">
-        <v>1.039529171663087</v>
+        <v>1.049763972350542</v>
       </c>
       <c r="E5">
-        <v>1.040746276850331</v>
+        <v>1.056508303253042</v>
       </c>
       <c r="F5">
-        <v>1.047173213256902</v>
+        <v>1.062918690007118</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051495852372393</v>
+        <v>1.041747610246543</v>
       </c>
       <c r="J5">
-        <v>1.042478277004186</v>
+        <v>1.04789809339816</v>
       </c>
       <c r="K5">
-        <v>1.048959577986007</v>
+        <v>1.052162592503417</v>
       </c>
       <c r="L5">
-        <v>1.050163685175049</v>
+        <v>1.05889081824318</v>
       </c>
       <c r="M5">
-        <v>1.056522598071534</v>
+        <v>1.065286100556274</v>
       </c>
       <c r="N5">
-        <v>1.017934596596015</v>
+        <v>1.019862777241466</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.024278273316154</v>
+        <v>1.043535594257663</v>
       </c>
       <c r="D6">
-        <v>1.039653361194594</v>
+        <v>1.049792770998494</v>
       </c>
       <c r="E6">
-        <v>1.040894911227136</v>
+        <v>1.056543810098537</v>
       </c>
       <c r="F6">
-        <v>1.047325665774083</v>
+        <v>1.062955186064683</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051539079185288</v>
+        <v>1.041755361883698</v>
       </c>
       <c r="J6">
-        <v>1.042568088343403</v>
+        <v>1.047919152682909</v>
       </c>
       <c r="K6">
-        <v>1.049046641252496</v>
+        <v>1.052182742861951</v>
       </c>
       <c r="L6">
-        <v>1.050274993031449</v>
+        <v>1.058917722168389</v>
       </c>
       <c r="M6">
-        <v>1.05663799763008</v>
+        <v>1.065314048954519</v>
       </c>
       <c r="N6">
-        <v>1.0179648878287</v>
+        <v>1.019869830502751</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.023124331053675</v>
+        <v>1.043279364860108</v>
       </c>
       <c r="D7">
-        <v>1.038797201168238</v>
+        <v>1.049594799972529</v>
       </c>
       <c r="E7">
-        <v>1.039870367680806</v>
+        <v>1.05629974815326</v>
       </c>
       <c r="F7">
-        <v>1.046274809932856</v>
+        <v>1.062704325137092</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051240335775881</v>
+        <v>1.041701993212443</v>
       </c>
       <c r="J7">
-        <v>1.04194857555094</v>
+        <v>1.047774351351362</v>
       </c>
       <c r="K7">
-        <v>1.048446033029485</v>
+        <v>1.052044182888162</v>
       </c>
       <c r="L7">
-        <v>1.049507428406782</v>
+        <v>1.058732761620444</v>
       </c>
       <c r="M7">
-        <v>1.055842238530053</v>
+        <v>1.065121909717973</v>
       </c>
       <c r="N7">
-        <v>1.017755928457903</v>
+        <v>1.019821329899279</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.018216834057213</v>
+        <v>1.042209927560993</v>
       </c>
       <c r="D8">
-        <v>1.035162381230962</v>
+        <v>1.048768669649701</v>
       </c>
       <c r="E8">
-        <v>1.035524049870317</v>
+        <v>1.055281861112676</v>
       </c>
       <c r="F8">
-        <v>1.041817033077104</v>
+        <v>1.06165809526113</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049953548062595</v>
+        <v>1.041477258040727</v>
       </c>
       <c r="J8">
-        <v>1.039309485714968</v>
+        <v>1.047169271370045</v>
       </c>
       <c r="K8">
-        <v>1.045886223381333</v>
+        <v>1.051464976954459</v>
       </c>
       <c r="L8">
-        <v>1.046243400961238</v>
+        <v>1.057960563058683</v>
       </c>
       <c r="M8">
-        <v>1.052458861066047</v>
+        <v>1.064319788267362</v>
       </c>
       <c r="N8">
-        <v>1.016865476360901</v>
+        <v>1.019618582639347</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.009231207149424</v>
+        <v>1.040331442906673</v>
       </c>
       <c r="D9">
-        <v>1.028533637923127</v>
+        <v>1.047318159685612</v>
       </c>
       <c r="E9">
-        <v>1.027609516967344</v>
+        <v>1.053496838457927</v>
       </c>
       <c r="F9">
-        <v>1.033700202927659</v>
+        <v>1.05982341844811</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047537113319886</v>
+        <v>1.041075026878425</v>
       </c>
       <c r="J9">
-        <v>1.034462146698646</v>
+        <v>1.046103757911817</v>
       </c>
       <c r="K9">
-        <v>1.041180138710942</v>
+        <v>1.050444252894094</v>
       </c>
       <c r="L9">
-        <v>1.040269985925704</v>
+        <v>1.056603376177305</v>
       </c>
       <c r="M9">
-        <v>1.046269195851101</v>
+        <v>1.062910190685089</v>
       </c>
       <c r="N9">
-        <v>1.015228957706722</v>
+        <v>1.019261263482461</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.00299297011331</v>
+        <v>1.039083263616651</v>
       </c>
       <c r="D10">
-        <v>1.023952265413243</v>
+        <v>1.046354787245632</v>
       </c>
       <c r="E10">
-        <v>1.022146341353111</v>
+        <v>1.052312744290016</v>
       </c>
       <c r="F10">
-        <v>1.028097885152959</v>
+        <v>1.058606419633478</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045820627690145</v>
+        <v>1.04080273589358</v>
       </c>
       <c r="J10">
-        <v>1.031088341529169</v>
+        <v>1.045393976959121</v>
       </c>
       <c r="K10">
-        <v>1.037902114486749</v>
+        <v>1.04976379280711</v>
       </c>
       <c r="L10">
-        <v>1.036126927286844</v>
+        <v>1.055701054216651</v>
       </c>
       <c r="M10">
-        <v>1.041977702380435</v>
+        <v>1.061973146023298</v>
       </c>
       <c r="N10">
-        <v>1.014089399391741</v>
+        <v>1.019023045055955</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.000228080232571</v>
+        <v>1.038543794186932</v>
       </c>
       <c r="D11">
-        <v>1.021927220328763</v>
+        <v>1.04593852229004</v>
       </c>
       <c r="E11">
-        <v>1.019732902829948</v>
+        <v>1.051801448759494</v>
       </c>
       <c r="F11">
-        <v>1.025623108361581</v>
+        <v>1.058080923755773</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045051060855576</v>
+        <v>1.04068385908977</v>
       </c>
       <c r="J11">
-        <v>1.029591373877706</v>
+        <v>1.045086784216197</v>
       </c>
       <c r="K11">
-        <v>1.036447138918941</v>
+        <v>1.049469168935775</v>
       </c>
       <c r="L11">
-        <v>1.03429203924124</v>
+        <v>1.055310945470597</v>
       </c>
       <c r="M11">
-        <v>1.04007746432014</v>
+        <v>1.061568054565845</v>
       </c>
       <c r="N11">
-        <v>1.013583681614832</v>
+        <v>1.018919898792719</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9991910656890829</v>
+        <v>1.038343563395898</v>
       </c>
       <c r="D12">
-        <v>1.021168575151423</v>
+        <v>1.045784037364165</v>
       </c>
       <c r="E12">
-        <v>1.018828938934478</v>
+        <v>1.051611747048535</v>
       </c>
       <c r="F12">
-        <v>1.024696190550366</v>
+        <v>1.057885954612519</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044761139617282</v>
+        <v>1.040639557517668</v>
       </c>
       <c r="J12">
-        <v>1.029029700568585</v>
+        <v>1.044972702636244</v>
       </c>
       <c r="K12">
-        <v>1.03590115355364</v>
+        <v>1.049359736907493</v>
       </c>
       <c r="L12">
-        <v>1.033604083333619</v>
+        <v>1.055166133949298</v>
       </c>
       <c r="M12">
-        <v>1.03936506705843</v>
+        <v>1.061417685756084</v>
       </c>
       <c r="N12">
-        <v>1.013393921383855</v>
+        <v>1.018881586770637</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9994139692397063</v>
+        <v>1.038386506663974</v>
       </c>
       <c r="D13">
-        <v>1.021331603322781</v>
+        <v>1.045817168791398</v>
       </c>
       <c r="E13">
-        <v>1.019023187165342</v>
+        <v>1.051652428891378</v>
       </c>
       <c r="F13">
-        <v>1.024895370282536</v>
+        <v>1.057927766010283</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044823514809388</v>
+        <v>1.040649066924418</v>
       </c>
       <c r="J13">
-        <v>1.02915043981608</v>
+        <v>1.044997172437558</v>
       </c>
       <c r="K13">
-        <v>1.036018523394796</v>
+        <v>1.049383210227401</v>
       </c>
       <c r="L13">
-        <v>1.033751945835062</v>
+        <v>1.055197192311001</v>
       </c>
       <c r="M13">
-        <v>1.039518179984502</v>
+        <v>1.061449935813674</v>
       </c>
       <c r="N13">
-        <v>1.013434713365422</v>
+        <v>1.01888980477182</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.000142567160021</v>
+        <v>1.038527239932131</v>
       </c>
       <c r="D14">
-        <v>1.021864643625932</v>
+        <v>1.045925749764615</v>
       </c>
       <c r="E14">
-        <v>1.019658335890442</v>
+        <v>1.051785763533949</v>
       </c>
       <c r="F14">
-        <v>1.02554664755429</v>
+        <v>1.058064802975223</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045027179592355</v>
+        <v>1.040680200070471</v>
       </c>
       <c r="J14">
-        <v>1.029545061956593</v>
+        <v>1.045077353710173</v>
       </c>
       <c r="K14">
-        <v>1.036402121853699</v>
+        <v>1.049460123152325</v>
       </c>
       <c r="L14">
-        <v>1.034235304574014</v>
+        <v>1.055298973413645</v>
       </c>
       <c r="M14">
-        <v>1.040018712772516</v>
+        <v>1.06155562297891</v>
       </c>
       <c r="N14">
-        <v>1.013568035434758</v>
+        <v>1.018916731883792</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.000590140138809</v>
+        <v>1.038613970564092</v>
       </c>
       <c r="D15">
-        <v>1.022192204489933</v>
+        <v>1.045992667955186</v>
       </c>
       <c r="E15">
-        <v>1.020048667690099</v>
+        <v>1.051867944121613</v>
       </c>
       <c r="F15">
-        <v>1.025946893935689</v>
+        <v>1.058149265642945</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045152121315788</v>
+        <v>1.040699362980295</v>
       </c>
       <c r="J15">
-        <v>1.029787448764323</v>
+        <v>1.04512675919159</v>
       </c>
       <c r="K15">
-        <v>1.03663772894393</v>
+        <v>1.049507512368618</v>
       </c>
       <c r="L15">
-        <v>1.034532262519245</v>
+        <v>1.055361696383269</v>
       </c>
       <c r="M15">
-        <v>1.040326229853824</v>
+        <v>1.061620753659412</v>
       </c>
       <c r="N15">
-        <v>1.01364992379422</v>
+        <v>1.018933322726181</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.003175087634136</v>
+        <v>1.039119087663693</v>
       </c>
       <c r="D16">
-        <v>1.024085770096474</v>
+        <v>1.04638243212223</v>
       </c>
       <c r="E16">
-        <v>1.022305478562666</v>
+        <v>1.052346707495423</v>
       </c>
       <c r="F16">
-        <v>1.028261069687152</v>
+        <v>1.058641326276801</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045871137076485</v>
+        <v>1.040810604919272</v>
       </c>
       <c r="J16">
-        <v>1.031186912255415</v>
+        <v>1.045414367546928</v>
       </c>
       <c r="K16">
-        <v>1.037997910293067</v>
+        <v>1.049783346561892</v>
       </c>
       <c r="L16">
-        <v>1.036247819702672</v>
+        <v>1.055726957290923</v>
       </c>
       <c r="M16">
-        <v>1.042102908696097</v>
+        <v>1.062000044562451</v>
       </c>
       <c r="N16">
-        <v>1.014122697655702</v>
+        <v>1.019029890659072</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.004779200128826</v>
+        <v>1.039436203440683</v>
       </c>
       <c r="D17">
-        <v>1.025262328437761</v>
+        <v>1.046627158313298</v>
       </c>
       <c r="E17">
-        <v>1.023708087784899</v>
+        <v>1.052647406133463</v>
       </c>
       <c r="F17">
-        <v>1.029699366329795</v>
+        <v>1.058950378716339</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046315030889359</v>
+        <v>1.04088012407468</v>
       </c>
       <c r="J17">
-        <v>1.032054951541538</v>
+        <v>1.045594817027361</v>
       </c>
       <c r="K17">
-        <v>1.038841456170458</v>
+        <v>1.049956376373991</v>
       </c>
       <c r="L17">
-        <v>1.037312816888357</v>
+        <v>1.055956238346316</v>
       </c>
       <c r="M17">
-        <v>1.043205953669416</v>
+        <v>1.062238140360052</v>
       </c>
       <c r="N17">
-        <v>1.014415920576271</v>
+        <v>1.019090466572048</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.005708737588884</v>
+        <v>1.039621268110549</v>
       </c>
       <c r="D18">
-        <v>1.025944629685856</v>
+        <v>1.046769987897528</v>
       </c>
       <c r="E18">
-        <v>1.024521611684904</v>
+        <v>1.052822935917236</v>
       </c>
       <c r="F18">
-        <v>1.030533601503912</v>
+        <v>1.059130785718118</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046571415571646</v>
+        <v>1.040920579490076</v>
       </c>
       <c r="J18">
-        <v>1.032557797072817</v>
+        <v>1.045700084255937</v>
       </c>
       <c r="K18">
-        <v>1.039330064246319</v>
+        <v>1.050057303554994</v>
       </c>
       <c r="L18">
-        <v>1.037930081439125</v>
+        <v>1.056090032136639</v>
       </c>
       <c r="M18">
-        <v>1.043845307355331</v>
+        <v>1.062377080695551</v>
       </c>
       <c r="N18">
-        <v>1.014585772410238</v>
+        <v>1.019125799818218</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.006024661792842</v>
+        <v>1.039684386675123</v>
       </c>
       <c r="D19">
-        <v>1.026176611608588</v>
+        <v>1.046818703442135</v>
       </c>
       <c r="E19">
-        <v>1.024798232382284</v>
+        <v>1.052882810270919</v>
       </c>
       <c r="F19">
-        <v>1.030817266664404</v>
+        <v>1.059192323853292</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046658410227606</v>
+        <v>1.040934357786024</v>
       </c>
       <c r="J19">
-        <v>1.032728672547523</v>
+        <v>1.045735980009984</v>
       </c>
       <c r="K19">
-        <v>1.039496093088458</v>
+        <v>1.050091717381</v>
       </c>
       <c r="L19">
-        <v>1.038139893414958</v>
+        <v>1.056135662152736</v>
       </c>
       <c r="M19">
-        <v>1.044062633769365</v>
+        <v>1.062424466405624</v>
       </c>
       <c r="N19">
-        <v>1.01464348935789</v>
+        <v>1.019137847584428</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.004607729580184</v>
+        <v>1.039402169934137</v>
       </c>
       <c r="D20">
-        <v>1.025136506790084</v>
+        <v>1.046600892709508</v>
       </c>
       <c r="E20">
-        <v>1.023558078539774</v>
+        <v>1.052615129792794</v>
       </c>
       <c r="F20">
-        <v>1.029545539027505</v>
+        <v>1.058917205616947</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046267667902837</v>
+        <v>1.040872675037632</v>
       </c>
       <c r="J20">
-        <v>1.03196217924899</v>
+        <v>1.045575455037505</v>
       </c>
       <c r="K20">
-        <v>1.038751306619798</v>
+        <v>1.049937811714333</v>
       </c>
       <c r="L20">
-        <v>1.037198961059343</v>
+        <v>1.055931632644409</v>
       </c>
       <c r="M20">
-        <v>1.043088026418233</v>
+        <v>1.062212588396285</v>
       </c>
       <c r="N20">
-        <v>1.014384583085432</v>
+        <v>1.019083967310932</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9999282932715047</v>
+        <v>1.038485793276532</v>
       </c>
       <c r="D21">
-        <v>1.021707856768963</v>
+        <v>1.045893771648196</v>
       </c>
       <c r="E21">
-        <v>1.019471510235434</v>
+        <v>1.051746493819428</v>
       </c>
       <c r="F21">
-        <v>1.025355077195544</v>
+        <v>1.058024442819556</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044967318701422</v>
+        <v>1.040671036143598</v>
       </c>
       <c r="J21">
-        <v>1.029429012819948</v>
+        <v>1.045053741664511</v>
       </c>
       <c r="K21">
-        <v>1.036289316323137</v>
+        <v>1.049437474080231</v>
       </c>
       <c r="L21">
-        <v>1.034093146127343</v>
+        <v>1.055268998855911</v>
       </c>
       <c r="M21">
-        <v>1.039871501665646</v>
+        <v>1.061524497962803</v>
       </c>
       <c r="N21">
-        <v>1.013528828820697</v>
+        <v>1.018908802486211</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9969279860498478</v>
+        <v>1.037910512266877</v>
       </c>
       <c r="D22">
-        <v>1.019514657626063</v>
+        <v>1.045449955206926</v>
       </c>
       <c r="E22">
-        <v>1.016858529534793</v>
+        <v>1.051201599903616</v>
       </c>
       <c r="F22">
-        <v>1.022675786599404</v>
+        <v>1.057464421150328</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044126128504939</v>
+        <v>1.040543416703013</v>
       </c>
       <c r="J22">
-        <v>1.027803607472713</v>
+        <v>1.044725856307642</v>
       </c>
       <c r="K22">
-        <v>1.034709190875262</v>
+        <v>1.049122918083698</v>
       </c>
       <c r="L22">
-        <v>1.032103253684968</v>
+        <v>1.054852909186806</v>
       </c>
       <c r="M22">
-        <v>1.037811029774222</v>
+        <v>1.061092448769707</v>
       </c>
       <c r="N22">
-        <v>1.012979670627264</v>
+        <v>1.018798675981952</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9985241728236703</v>
+        <v>1.038215395446146</v>
       </c>
       <c r="D23">
-        <v>1.020680953186183</v>
+        <v>1.045685156242927</v>
       </c>
       <c r="E23">
-        <v>1.018247962376063</v>
+        <v>1.051490339097212</v>
       </c>
       <c r="F23">
-        <v>1.024100467483516</v>
+        <v>1.057761175875783</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044574337621147</v>
+        <v>1.040611149655529</v>
       </c>
       <c r="J23">
-        <v>1.028668438997731</v>
+        <v>1.044899661134035</v>
       </c>
       <c r="K23">
-        <v>1.035549964232247</v>
+        <v>1.049289667219446</v>
       </c>
       <c r="L23">
-        <v>1.033161740951156</v>
+        <v>1.055073434961688</v>
       </c>
       <c r="M23">
-        <v>1.038907026613757</v>
+        <v>1.061321430596433</v>
       </c>
       <c r="N23">
-        <v>1.013271867050309</v>
+        <v>1.018857055332723</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.004685228603357</v>
+        <v>1.039417547913164</v>
       </c>
       <c r="D24">
-        <v>1.025193372413159</v>
+        <v>1.046612760743092</v>
       </c>
       <c r="E24">
-        <v>1.023625875436097</v>
+        <v>1.052629713657702</v>
       </c>
       <c r="F24">
-        <v>1.029615061462289</v>
+        <v>1.058932194674357</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.0462890770112</v>
+        <v>1.040876041227165</v>
       </c>
       <c r="J24">
-        <v>1.03200410975405</v>
+        <v>1.04558420384391</v>
       </c>
       <c r="K24">
-        <v>1.038792051869759</v>
+        <v>1.049946200279492</v>
       </c>
       <c r="L24">
-        <v>1.037250419735728</v>
+        <v>1.055942750722884</v>
       </c>
       <c r="M24">
-        <v>1.043141325114494</v>
+        <v>1.062224134034154</v>
       </c>
       <c r="N24">
-        <v>1.014398746790725</v>
+        <v>1.019086904046286</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.011596312651593</v>
+        <v>1.040816353863774</v>
       </c>
       <c r="D25">
-        <v>1.030275017794701</v>
+        <v>1.047692518991554</v>
       </c>
       <c r="E25">
-        <v>1.029687407590185</v>
+        <v>1.053957274953789</v>
       </c>
       <c r="F25">
-        <v>1.035831122204228</v>
+        <v>1.060296657066327</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048180007807955</v>
+        <v>1.041179745691936</v>
       </c>
       <c r="J25">
-        <v>1.035739619194127</v>
+        <v>1.046379125653846</v>
       </c>
       <c r="K25">
-        <v>1.042420853151122</v>
+        <v>1.050708136590595</v>
       </c>
       <c r="L25">
-        <v>1.041841704342293</v>
+        <v>1.056953813524404</v>
       </c>
       <c r="M25">
-        <v>1.047897551639199</v>
+        <v>1.06327413939829</v>
       </c>
       <c r="N25">
-        <v>1.015660347946891</v>
+        <v>1.01935364221924</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_84/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_84/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.04193501389126</v>
+        <v>1.016931224919078</v>
       </c>
       <c r="D2">
-        <v>1.048556341196559</v>
+        <v>1.034211859712849</v>
       </c>
       <c r="E2">
-        <v>1.055020396193695</v>
+        <v>1.03438829302821</v>
       </c>
       <c r="F2">
-        <v>1.061389353261513</v>
+        <v>1.04065219339925</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041418978249233</v>
+        <v>1.049612355168475</v>
       </c>
       <c r="J2">
-        <v>1.047013544554417</v>
+        <v>1.038617055709239</v>
       </c>
       <c r="K2">
-        <v>1.051315856538892</v>
+        <v>1.045214288877565</v>
       </c>
       <c r="L2">
-        <v>1.057762003201966</v>
+        <v>1.045388463831651</v>
       </c>
       <c r="M2">
-        <v>1.064113546403013</v>
+        <v>1.05157280492383</v>
       </c>
       <c r="N2">
-        <v>1.019566382530981</v>
+        <v>1.016631773654884</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.042748953802618</v>
+        <v>1.020708852896698</v>
       </c>
       <c r="D3">
-        <v>1.049185031758192</v>
+        <v>1.037006865498856</v>
       </c>
       <c r="E3">
-        <v>1.055794751089229</v>
+        <v>1.037728929197203</v>
       </c>
       <c r="F3">
-        <v>1.062185263928952</v>
+        <v>1.044078422586875</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041590927976909</v>
+        <v>1.050610172789851</v>
       </c>
       <c r="J3">
-        <v>1.047474391361324</v>
+        <v>1.040650463561461</v>
       </c>
       <c r="K3">
-        <v>1.051757090794496</v>
+        <v>1.047187159292213</v>
       </c>
       <c r="L3">
-        <v>1.058349816303406</v>
+        <v>1.047900789572001</v>
       </c>
       <c r="M3">
-        <v>1.06472411563336</v>
+        <v>1.054176743670918</v>
       </c>
       <c r="N3">
-        <v>1.01972083635055</v>
+        <v>1.017317990788009</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.043276400249202</v>
+        <v>1.023110930703961</v>
       </c>
       <c r="D4">
-        <v>1.049592509500735</v>
+        <v>1.038787262148484</v>
       </c>
       <c r="E4">
-        <v>1.056296924740789</v>
+        <v>1.03985847580795</v>
       </c>
       <c r="F4">
-        <v>1.062701423078262</v>
+        <v>1.046262612739966</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041701374638252</v>
+        <v>1.051236857638132</v>
       </c>
       <c r="J4">
-        <v>1.047772675585868</v>
+        <v>1.041941378877355</v>
       </c>
       <c r="K4">
-        <v>1.05204257923944</v>
+        <v>1.048439055265662</v>
       </c>
       <c r="L4">
-        <v>1.058730621478928</v>
+        <v>1.049498514997359</v>
       </c>
       <c r="M4">
-        <v>1.065119686539399</v>
+        <v>1.055832998002364</v>
       </c>
       <c r="N4">
-        <v>1.019820768565562</v>
+        <v>1.017753500878597</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.043498321939337</v>
+        <v>1.024110935920769</v>
       </c>
       <c r="D5">
-        <v>1.049763972350542</v>
+        <v>1.039529171663086</v>
       </c>
       <c r="E5">
-        <v>1.056508303253042</v>
+        <v>1.04074627685033</v>
       </c>
       <c r="F5">
-        <v>1.062918690007118</v>
+        <v>1.047173213256901</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041747610246543</v>
+        <v>1.051495852372393</v>
       </c>
       <c r="J5">
-        <v>1.04789809339816</v>
+        <v>1.042478277004186</v>
       </c>
       <c r="K5">
-        <v>1.052162592503417</v>
+        <v>1.048959577986006</v>
       </c>
       <c r="L5">
-        <v>1.05889081824318</v>
+        <v>1.050163685175048</v>
       </c>
       <c r="M5">
-        <v>1.065286100556274</v>
+        <v>1.056522598071533</v>
       </c>
       <c r="N5">
-        <v>1.019862777241466</v>
+        <v>1.017934596596015</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.043535594257663</v>
+        <v>1.024278273316154</v>
       </c>
       <c r="D6">
-        <v>1.049792770998494</v>
+        <v>1.039653361194594</v>
       </c>
       <c r="E6">
-        <v>1.056543810098537</v>
+        <v>1.040894911227136</v>
       </c>
       <c r="F6">
-        <v>1.062955186064683</v>
+        <v>1.047325665774082</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041755361883698</v>
+        <v>1.051539079185288</v>
       </c>
       <c r="J6">
-        <v>1.047919152682909</v>
+        <v>1.042568088343403</v>
       </c>
       <c r="K6">
-        <v>1.052182742861951</v>
+        <v>1.049046641252496</v>
       </c>
       <c r="L6">
-        <v>1.058917722168389</v>
+        <v>1.050274993031449</v>
       </c>
       <c r="M6">
-        <v>1.065314048954519</v>
+        <v>1.05663799763008</v>
       </c>
       <c r="N6">
-        <v>1.019869830502751</v>
+        <v>1.0179648878287</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.043279364860108</v>
+        <v>1.023124331053677</v>
       </c>
       <c r="D7">
-        <v>1.049594799972529</v>
+        <v>1.03879720116824</v>
       </c>
       <c r="E7">
-        <v>1.05629974815326</v>
+        <v>1.039870367680807</v>
       </c>
       <c r="F7">
-        <v>1.062704325137092</v>
+        <v>1.046274809932858</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041701993212443</v>
+        <v>1.051240335775882</v>
       </c>
       <c r="J7">
-        <v>1.047774351351362</v>
+        <v>1.041948575550941</v>
       </c>
       <c r="K7">
-        <v>1.052044182888162</v>
+        <v>1.048446033029486</v>
       </c>
       <c r="L7">
-        <v>1.058732761620444</v>
+        <v>1.049507428406784</v>
       </c>
       <c r="M7">
-        <v>1.065121909717973</v>
+        <v>1.055842238530055</v>
       </c>
       <c r="N7">
-        <v>1.019821329899279</v>
+        <v>1.017755928457904</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.042209927560993</v>
+        <v>1.018216834057214</v>
       </c>
       <c r="D8">
-        <v>1.048768669649701</v>
+        <v>1.035162381230963</v>
       </c>
       <c r="E8">
-        <v>1.055281861112676</v>
+        <v>1.035524049870317</v>
       </c>
       <c r="F8">
-        <v>1.06165809526113</v>
+        <v>1.041817033077105</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041477258040727</v>
+        <v>1.049953548062596</v>
       </c>
       <c r="J8">
-        <v>1.047169271370045</v>
+        <v>1.039309485714969</v>
       </c>
       <c r="K8">
-        <v>1.051464976954459</v>
+        <v>1.045886223381334</v>
       </c>
       <c r="L8">
-        <v>1.057960563058683</v>
+        <v>1.046243400961238</v>
       </c>
       <c r="M8">
-        <v>1.064319788267362</v>
+        <v>1.052458861066048</v>
       </c>
       <c r="N8">
-        <v>1.019618582639347</v>
+        <v>1.016865476360901</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.040331442906673</v>
+        <v>1.009231207149425</v>
       </c>
       <c r="D9">
-        <v>1.047318159685612</v>
+        <v>1.028533637923127</v>
       </c>
       <c r="E9">
-        <v>1.053496838457927</v>
+        <v>1.027609516967344</v>
       </c>
       <c r="F9">
-        <v>1.05982341844811</v>
+        <v>1.03370020292766</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041075026878425</v>
+        <v>1.047537113319886</v>
       </c>
       <c r="J9">
-        <v>1.046103757911817</v>
+        <v>1.034462146698646</v>
       </c>
       <c r="K9">
-        <v>1.050444252894094</v>
+        <v>1.041180138710942</v>
       </c>
       <c r="L9">
-        <v>1.056603376177305</v>
+        <v>1.040269985925704</v>
       </c>
       <c r="M9">
-        <v>1.062910190685089</v>
+        <v>1.046269195851101</v>
       </c>
       <c r="N9">
-        <v>1.019261263482461</v>
+        <v>1.015228957706722</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.039083263616651</v>
+        <v>1.002992970113312</v>
       </c>
       <c r="D10">
-        <v>1.046354787245632</v>
+        <v>1.023952265413244</v>
       </c>
       <c r="E10">
-        <v>1.052312744290016</v>
+        <v>1.022146341353113</v>
       </c>
       <c r="F10">
-        <v>1.058606419633478</v>
+        <v>1.028097885152961</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04080273589358</v>
+        <v>1.045820627690146</v>
       </c>
       <c r="J10">
-        <v>1.045393976959121</v>
+        <v>1.031088341529171</v>
       </c>
       <c r="K10">
-        <v>1.04976379280711</v>
+        <v>1.03790211448675</v>
       </c>
       <c r="L10">
-        <v>1.055701054216651</v>
+        <v>1.036126927286846</v>
       </c>
       <c r="M10">
-        <v>1.061973146023298</v>
+        <v>1.041977702380436</v>
       </c>
       <c r="N10">
-        <v>1.019023045055955</v>
+        <v>1.014089399391741</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.038543794186932</v>
+        <v>1.000228080232572</v>
       </c>
       <c r="D11">
-        <v>1.04593852229004</v>
+        <v>1.021927220328764</v>
       </c>
       <c r="E11">
-        <v>1.051801448759494</v>
+        <v>1.019732902829949</v>
       </c>
       <c r="F11">
-        <v>1.058080923755773</v>
+        <v>1.025623108361582</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04068385908977</v>
+        <v>1.045051060855576</v>
       </c>
       <c r="J11">
-        <v>1.045086784216197</v>
+        <v>1.029591373877707</v>
       </c>
       <c r="K11">
-        <v>1.049469168935775</v>
+        <v>1.036447138918942</v>
       </c>
       <c r="L11">
-        <v>1.055310945470597</v>
+        <v>1.034292039241241</v>
       </c>
       <c r="M11">
-        <v>1.061568054565845</v>
+        <v>1.040077464320141</v>
       </c>
       <c r="N11">
-        <v>1.018919898792719</v>
+        <v>1.013583681614832</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.038343563395898</v>
+        <v>0.9991910656890833</v>
       </c>
       <c r="D12">
-        <v>1.045784037364165</v>
+        <v>1.021168575151423</v>
       </c>
       <c r="E12">
-        <v>1.051611747048535</v>
+        <v>1.018828938934478</v>
       </c>
       <c r="F12">
-        <v>1.057885954612519</v>
+        <v>1.024696190550366</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040639557517668</v>
+        <v>1.044761139617282</v>
       </c>
       <c r="J12">
-        <v>1.044972702636244</v>
+        <v>1.029029700568585</v>
       </c>
       <c r="K12">
-        <v>1.049359736907493</v>
+        <v>1.03590115355364</v>
       </c>
       <c r="L12">
-        <v>1.055166133949298</v>
+        <v>1.03360408333362</v>
       </c>
       <c r="M12">
-        <v>1.061417685756084</v>
+        <v>1.039365067058431</v>
       </c>
       <c r="N12">
-        <v>1.018881586770637</v>
+        <v>1.013393921383855</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.038386506663974</v>
+        <v>0.9994139692397069</v>
       </c>
       <c r="D13">
-        <v>1.045817168791398</v>
+        <v>1.021331603322782</v>
       </c>
       <c r="E13">
-        <v>1.051652428891378</v>
+        <v>1.019023187165342</v>
       </c>
       <c r="F13">
-        <v>1.057927766010283</v>
+        <v>1.024895370282537</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040649066924418</v>
+        <v>1.044823514809388</v>
       </c>
       <c r="J13">
-        <v>1.044997172437558</v>
+        <v>1.029150439816081</v>
       </c>
       <c r="K13">
-        <v>1.049383210227401</v>
+        <v>1.036018523394796</v>
       </c>
       <c r="L13">
-        <v>1.055197192311001</v>
+        <v>1.033751945835062</v>
       </c>
       <c r="M13">
-        <v>1.061449935813674</v>
+        <v>1.039518179984503</v>
       </c>
       <c r="N13">
-        <v>1.01888980477182</v>
+        <v>1.013434713365422</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.038527239932131</v>
+        <v>1.00014256716002</v>
       </c>
       <c r="D14">
-        <v>1.045925749764615</v>
+        <v>1.021864643625931</v>
       </c>
       <c r="E14">
-        <v>1.051785763533949</v>
+        <v>1.019658335890441</v>
       </c>
       <c r="F14">
-        <v>1.058064802975223</v>
+        <v>1.02554664755429</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040680200070471</v>
+        <v>1.045027179592355</v>
       </c>
       <c r="J14">
-        <v>1.045077353710173</v>
+        <v>1.029545061956592</v>
       </c>
       <c r="K14">
-        <v>1.049460123152325</v>
+        <v>1.036402121853699</v>
       </c>
       <c r="L14">
-        <v>1.055298973413645</v>
+        <v>1.034235304574013</v>
       </c>
       <c r="M14">
-        <v>1.06155562297891</v>
+        <v>1.040018712772515</v>
       </c>
       <c r="N14">
-        <v>1.018916731883792</v>
+        <v>1.013568035434757</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.038613970564092</v>
+        <v>1.000590140138809</v>
       </c>
       <c r="D15">
-        <v>1.045992667955186</v>
+        <v>1.022192204489933</v>
       </c>
       <c r="E15">
-        <v>1.051867944121613</v>
+        <v>1.0200486676901</v>
       </c>
       <c r="F15">
-        <v>1.058149265642945</v>
+        <v>1.02594689393569</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040699362980295</v>
+        <v>1.045152121315788</v>
       </c>
       <c r="J15">
-        <v>1.04512675919159</v>
+        <v>1.029787448764324</v>
       </c>
       <c r="K15">
-        <v>1.049507512368618</v>
+        <v>1.03663772894393</v>
       </c>
       <c r="L15">
-        <v>1.055361696383269</v>
+        <v>1.034532262519245</v>
       </c>
       <c r="M15">
-        <v>1.061620753659412</v>
+        <v>1.040326229853824</v>
       </c>
       <c r="N15">
-        <v>1.018933322726181</v>
+        <v>1.01364992379422</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.039119087663693</v>
+        <v>1.003175087634137</v>
       </c>
       <c r="D16">
-        <v>1.04638243212223</v>
+        <v>1.024085770096474</v>
       </c>
       <c r="E16">
-        <v>1.052346707495423</v>
+        <v>1.022305478562667</v>
       </c>
       <c r="F16">
-        <v>1.058641326276801</v>
+        <v>1.028261069687153</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040810604919272</v>
+        <v>1.045871137076486</v>
       </c>
       <c r="J16">
-        <v>1.045414367546928</v>
+        <v>1.031186912255416</v>
       </c>
       <c r="K16">
-        <v>1.049783346561892</v>
+        <v>1.037997910293067</v>
       </c>
       <c r="L16">
-        <v>1.055726957290923</v>
+        <v>1.036247819702673</v>
       </c>
       <c r="M16">
-        <v>1.062000044562451</v>
+        <v>1.042102908696097</v>
       </c>
       <c r="N16">
-        <v>1.019029890659072</v>
+        <v>1.014122697655702</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.039436203440683</v>
+        <v>1.004779200128826</v>
       </c>
       <c r="D17">
-        <v>1.046627158313298</v>
+        <v>1.02526232843776</v>
       </c>
       <c r="E17">
-        <v>1.052647406133463</v>
+        <v>1.023708087784899</v>
       </c>
       <c r="F17">
-        <v>1.058950378716339</v>
+        <v>1.029699366329795</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04088012407468</v>
+        <v>1.046315030889359</v>
       </c>
       <c r="J17">
-        <v>1.045594817027361</v>
+        <v>1.032054951541538</v>
       </c>
       <c r="K17">
-        <v>1.049956376373991</v>
+        <v>1.038841456170458</v>
       </c>
       <c r="L17">
-        <v>1.055956238346316</v>
+        <v>1.037312816888357</v>
       </c>
       <c r="M17">
-        <v>1.062238140360052</v>
+        <v>1.043205953669416</v>
       </c>
       <c r="N17">
-        <v>1.019090466572048</v>
+        <v>1.014415920576271</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.039621268110549</v>
+        <v>1.005708737588884</v>
       </c>
       <c r="D18">
-        <v>1.046769987897528</v>
+        <v>1.025944629685856</v>
       </c>
       <c r="E18">
-        <v>1.052822935917236</v>
+        <v>1.024521611684905</v>
       </c>
       <c r="F18">
-        <v>1.059130785718118</v>
+        <v>1.030533601503912</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040920579490076</v>
+        <v>1.046571415571646</v>
       </c>
       <c r="J18">
-        <v>1.045700084255937</v>
+        <v>1.032557797072818</v>
       </c>
       <c r="K18">
-        <v>1.050057303554994</v>
+        <v>1.039330064246319</v>
       </c>
       <c r="L18">
-        <v>1.056090032136639</v>
+        <v>1.037930081439125</v>
       </c>
       <c r="M18">
-        <v>1.062377080695551</v>
+        <v>1.043845307355331</v>
       </c>
       <c r="N18">
-        <v>1.019125799818218</v>
+        <v>1.014585772410238</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.039684386675123</v>
+        <v>1.006024661792842</v>
       </c>
       <c r="D19">
-        <v>1.046818703442135</v>
+        <v>1.026176611608588</v>
       </c>
       <c r="E19">
-        <v>1.052882810270919</v>
+        <v>1.024798232382285</v>
       </c>
       <c r="F19">
-        <v>1.059192323853292</v>
+        <v>1.030817266664404</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040934357786024</v>
+        <v>1.046658410227606</v>
       </c>
       <c r="J19">
-        <v>1.045735980009984</v>
+        <v>1.032728672547524</v>
       </c>
       <c r="K19">
-        <v>1.050091717381</v>
+        <v>1.039496093088459</v>
       </c>
       <c r="L19">
-        <v>1.056135662152736</v>
+        <v>1.038139893414959</v>
       </c>
       <c r="M19">
-        <v>1.062424466405624</v>
+        <v>1.044062633769365</v>
       </c>
       <c r="N19">
-        <v>1.019137847584428</v>
+        <v>1.014643489357891</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.039402169934137</v>
+        <v>1.004607729580184</v>
       </c>
       <c r="D20">
-        <v>1.046600892709508</v>
+        <v>1.025136506790084</v>
       </c>
       <c r="E20">
-        <v>1.052615129792794</v>
+        <v>1.023558078539774</v>
       </c>
       <c r="F20">
-        <v>1.058917205616947</v>
+        <v>1.029545539027505</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040872675037632</v>
+        <v>1.046267667902837</v>
       </c>
       <c r="J20">
-        <v>1.045575455037505</v>
+        <v>1.031962179248991</v>
       </c>
       <c r="K20">
-        <v>1.049937811714333</v>
+        <v>1.038751306619798</v>
       </c>
       <c r="L20">
-        <v>1.055931632644409</v>
+        <v>1.037198961059343</v>
       </c>
       <c r="M20">
-        <v>1.062212588396285</v>
+        <v>1.043088026418234</v>
       </c>
       <c r="N20">
-        <v>1.019083967310932</v>
+        <v>1.014384583085432</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.038485793276532</v>
+        <v>0.9999282932715052</v>
       </c>
       <c r="D21">
-        <v>1.045893771648196</v>
+        <v>1.021707856768964</v>
       </c>
       <c r="E21">
-        <v>1.051746493819428</v>
+        <v>1.019471510235435</v>
       </c>
       <c r="F21">
-        <v>1.058024442819556</v>
+        <v>1.025355077195545</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040671036143598</v>
+        <v>1.044967318701422</v>
       </c>
       <c r="J21">
-        <v>1.045053741664511</v>
+        <v>1.029429012819948</v>
       </c>
       <c r="K21">
-        <v>1.049437474080231</v>
+        <v>1.036289316323138</v>
       </c>
       <c r="L21">
-        <v>1.055268998855911</v>
+        <v>1.034093146127343</v>
       </c>
       <c r="M21">
-        <v>1.061524497962803</v>
+        <v>1.039871501665646</v>
       </c>
       <c r="N21">
-        <v>1.018908802486211</v>
+        <v>1.013528828820697</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.037910512266877</v>
+        <v>0.9969279860498481</v>
       </c>
       <c r="D22">
-        <v>1.045449955206926</v>
+        <v>1.019514657626064</v>
       </c>
       <c r="E22">
-        <v>1.051201599903616</v>
+        <v>1.016858529534793</v>
       </c>
       <c r="F22">
-        <v>1.057464421150328</v>
+        <v>1.022675786599404</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040543416703013</v>
+        <v>1.044126128504939</v>
       </c>
       <c r="J22">
-        <v>1.044725856307642</v>
+        <v>1.027803607472714</v>
       </c>
       <c r="K22">
-        <v>1.049122918083698</v>
+        <v>1.034709190875263</v>
       </c>
       <c r="L22">
-        <v>1.054852909186806</v>
+        <v>1.032103253684969</v>
       </c>
       <c r="M22">
-        <v>1.061092448769707</v>
+        <v>1.037811029774222</v>
       </c>
       <c r="N22">
-        <v>1.018798675981952</v>
+        <v>1.012979670627264</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.038215395446146</v>
+        <v>0.99852417282367</v>
       </c>
       <c r="D23">
-        <v>1.045685156242927</v>
+        <v>1.020680953186183</v>
       </c>
       <c r="E23">
-        <v>1.051490339097212</v>
+        <v>1.018247962376063</v>
       </c>
       <c r="F23">
-        <v>1.057761175875783</v>
+        <v>1.024100467483516</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040611149655529</v>
+        <v>1.044574337621147</v>
       </c>
       <c r="J23">
-        <v>1.044899661134035</v>
+        <v>1.02866843899773</v>
       </c>
       <c r="K23">
-        <v>1.049289667219446</v>
+        <v>1.035549964232247</v>
       </c>
       <c r="L23">
-        <v>1.055073434961688</v>
+        <v>1.033161740951156</v>
       </c>
       <c r="M23">
-        <v>1.061321430596433</v>
+        <v>1.038907026613757</v>
       </c>
       <c r="N23">
-        <v>1.018857055332723</v>
+        <v>1.013271867050309</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.039417547913164</v>
+        <v>1.004685228603357</v>
       </c>
       <c r="D24">
-        <v>1.046612760743092</v>
+        <v>1.025193372413159</v>
       </c>
       <c r="E24">
-        <v>1.052629713657702</v>
+        <v>1.023625875436097</v>
       </c>
       <c r="F24">
-        <v>1.058932194674357</v>
+        <v>1.029615061462289</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040876041227165</v>
+        <v>1.0462890770112</v>
       </c>
       <c r="J24">
-        <v>1.04558420384391</v>
+        <v>1.03200410975405</v>
       </c>
       <c r="K24">
-        <v>1.049946200279492</v>
+        <v>1.03879205186976</v>
       </c>
       <c r="L24">
-        <v>1.055942750722884</v>
+        <v>1.037250419735728</v>
       </c>
       <c r="M24">
-        <v>1.062224134034154</v>
+        <v>1.043141325114494</v>
       </c>
       <c r="N24">
-        <v>1.019086904046286</v>
+        <v>1.014398746790725</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.040816353863774</v>
+        <v>1.011596312651593</v>
       </c>
       <c r="D25">
-        <v>1.047692518991554</v>
+        <v>1.030275017794701</v>
       </c>
       <c r="E25">
-        <v>1.053957274953789</v>
+        <v>1.029687407590186</v>
       </c>
       <c r="F25">
-        <v>1.060296657066327</v>
+        <v>1.035831122204228</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041179745691936</v>
+        <v>1.048180007807955</v>
       </c>
       <c r="J25">
-        <v>1.046379125653846</v>
+        <v>1.035739619194128</v>
       </c>
       <c r="K25">
-        <v>1.050708136590595</v>
+        <v>1.042420853151122</v>
       </c>
       <c r="L25">
-        <v>1.056953813524404</v>
+        <v>1.041841704342294</v>
       </c>
       <c r="M25">
-        <v>1.06327413939829</v>
+        <v>1.0478975516392</v>
       </c>
       <c r="N25">
-        <v>1.01935364221924</v>
+        <v>1.015660347946891</v>
       </c>
     </row>
   </sheetData>
